--- a/revisiones/gemelos_digitales_cancer/res_screaning1.xlsx
+++ b/revisiones/gemelos_digitales_cancer/res_screaning1.xlsx
@@ -6516,10 +6516,26 @@
           <t>Cancer exhibits substantial heterogeneity, manifesting as distinct morphological and molecular variations across tumors, which frequently undermines the efficacy of conventional oncological treatments. Developments in multiomics and sequencing technologies have paved the way for unraveling this heterogeneity. Nevertheless, the complexity of the data gathered from these methods cannot be fully interpreted through multimodal data analysis alone. Mathematical modeling plays a crucial role in delineating the underlying mechanisms to explain sources of heterogeneity using patient-specific data. Intra-tumoral diversity necessitates the development of precision oncology therapies utilizing multiphysics, multiscale mathematical models for cancer. This review discusses recent advancements in computational methodologies for precision oncology, highlighting the potential of cancer digital twins to enhance patient-specific decision-making in clinical settings. We review computational efforts in building patient-informed cellular and tissue-level models for cancer and propose a computational framework that utilizes agent-based modeling as an effective conduit to integrate cancer systems models that encode signaling at the cellular scale with digital twin models that predict tissue-level response in a tumor microenvironment customized to patient information. Furthermore, we discuss machine learning approaches to building surrogates for these complex mathematical models. These surrogates can potentially be used to conduct sensitivity analysis, verification, validation, and uncertainty quantification, which is especially important for tumor studies due to their dynamic nature.</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>El cáncer exhibe una heterogeneidad sustancial, manifestándose como variaciones morfológicas y moleculares distintas en tumores, lo que frecuentemente socava la eficacia de los tratamientos oncológicos convencionales. Los desarrollos en multiomics y tecnologías de secuenciación han abierto el camino para desentrañar esta heterogeneidad. Sin embargo, la complejidad de los datos recopilados a partir de estos métodos no puede ser completamente interpretada solo a través del análisis de datos multimodales. El modelado matemático desempeña un papel crucial en la delimitación de los mecanismos subyacentes para explicar las fuentes de heterogeneidad utilizando datos específicos del paciente. La diversidad intra-tumoral requiere el desarrollo de terapias de oncología de precisión utilizando modelos matemáticos multiescala y multiphysics para el cáncer. Esta revisión discute los recientes avances en metodologías computacionales para la oncología de precisión, destacando el potencial de los gemelos digitales en cáncer para mejorar la toma de decisiones específicas del paciente en entornos clínicos. Revisamos esfuerzos computacionales para construir modelos a nivel celular y de tejido informados por el paciente para el cáncer y proponemos un marco computacional que utiliza el modelado basado en agentes como un conducto efectivo para integrar modelos de sistemas del cáncer que codifican señales a escala celular con modelos de gemelos digitales que predicen la respuesta a nivel de tejido en un microentorno tumoral personalizado según la información del paciente. Además, discutimos enfoques de aprendizaje automático para construir surrogates para estos complejos modelos matemáticos. Estos surrogates pueden potencialmente ser utilizados para realizar análisis de sensibilidad, verificación, validación y cuantificación de incertidumbre, lo cual es especialmente importante para los estudios de tumores debido a su naturaleza dinámica.</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>El artículo aborda los avances en la modelización matemática aplicada a la heterogeneidad del cáncer y el desarrollo de terapias personalizadas. A pesar de su relevancia en el contexto de los gemelos digitales, se clasifica como una revisión sistemática, lo que limita su inclusión en la revisión. Presenta un marco computacional que combina modelos sistémicos con gemelos digitales para mejorar la toma de decisiones clínicas personalizadas.</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>El artículo es una revisión sistemática y no se enfoca exclusivamente en el uso de gemelos digitales humanos.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -6548,10 +6564,26 @@
           <t>The TRIPOD (Transparent Reporting of a multivariable prediction model for Individual Prognosis Or Diagnosis) statement was published in 2015 to provide the minimum reporting recommendations for studies developing or evaluating the performance of a prediction model. Methodological advances in the field of prediction have since included the widespread use of artificial intelligence (AI) powered by machine learning methods to develop prediction models. An update to the TRIPOD statement is thus needed. TRIPOD+AI provides harmonised guidance for reporting prediction model studies, irrespective of whether regression modelling or machine learning methods have been used. The new checklist supersedes the TRIPOD 2015 checklist, which should no longer be used. This article describes the development of TRIPOD+AI and presents the expanded 27 item checklist with more detailed explanation of each reporting recommendation, and the TRIPOD+AI for Abstracts checklist. TRIPOD+AI aims to promote the complete, accurate, and transparent reporting of studies that develop a prediction model or evaluate its performance. Complete reporting will facilitate study appraisal, model evaluation, and model implementation.</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>El enunciado TRIPOD (Reporte Transparente de un modelo de predicción multivariable para Pronóstico o Diagnóstico Individual) fue publicado en 2015 para proporcionar las recomendaciones mínimas de reporte para estudios que desarrollan o evalúan el rendimiento de un modelo de predicción. Los avances metodológicos en el campo de la predicción han incluido el uso generalizado de inteligencia artificial (IA) impulsada por métodos de aprendizaje automático para desarrollar modelos de predicción. Por lo tanto, se necesita una actualización del enunciado TRIPOD. TRIPOD+AI proporciona orientación armonizada para la elaboración de informes de estudios de modelos de predicción, independientemente de si se han utilizado métodos de modelado de regresión o de aprendizaje automático. La nueva lista de verificación reemplaza la lista de verificación TRIPOD 2015, que ya no debería usarse. Este artículo describe el desarrollo de TRIPOD+AI y presenta la lista de verificación ampliada de 27 ítems con una explicación más detallada de cada recomendación de reporte, y la lista de verificación TRIPOD+AI para Resúmenes. TRIPOD+AI tiene como objetivo promover el reporte completo, preciso y transparente de estudios que desarrollen un modelo de predicción o evalúen su rendimiento. El reporte completo facilitará la evaluación del estudio, la evaluación del modelo y la implementación del modelo.</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>El artículo presenta la actualización del enunciado TRIPOD para promover un informe más transparente y eficaz de los modelos de predicción en investigación. Propone una nueva lista de verificación de 27 elementos que mejora la anterior y aboga por el uso de inteligencia artificial en estos contextos. Sin embargo, carece de enfoque en gemelos digitales humanos y su aplicación en el cáncer, lo que limita su relevancia para la revisión sistemática.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>El artículo no está relacionado con el uso de gemelos digitales humanos y se centra en recomendaciones para la elaboración de modelos de predicción.</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -6580,10 +6612,26 @@
           <t>Digital twins are made of a real-world component where data is measured and a virtual component where those measurements are used to parameterize computational models. There is growing interest in applying digital twins-based approaches to optimize personalized treatment plans and improve health outcomes. The integration of artificial intelligence is critical in this process, as it enables the development of sophisticated disease models that can accurately predict patient response to therapeutic interventions. There is a unique and equally important application of AI to the real-world component of a digital twin when it is applied to medical interventions. The patient can only be treated once, and therefore, we must turn to the experience and outcomes of previously treated patients for validation and optimization of the computational predictions. The physical component of a digital twins instead must utilize a compilation of available data from previously treated cancer patients whose characteristics (genetics, tumor type, lifestyle, etc.) closely parallel those of a newly diagnosed cancer patient for the purpose of predicting outcomes, stratifying treatment options, predicting responses to treatment and/or adverse events. These tasks include the development of robust data collection methods, ensuring data availability, creating precise and dependable models, and establishing ethical guidelines for the use and sharing of data. To successfully implement digital twin technology in clinical care, it is crucial to gather data that accurately reflects the variety of diseases and the diversity of the population.</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Los gemelos digitales se componen de un componente del mundo real donde se miden datos y un componente virtual donde esas mediciones se utilizan para parametrizar modelos computacionales. Hay un interés creciente en aplicar enfoques basados en gemelos digitales para optimizar planes de tratamiento personalizados y mejorar los resultados de salud. La integración de la inteligencia artificial es crítica en este proceso, ya que permite el desarrollo de modelos de enfermedad sofisticados que pueden predecir con precisión la respuesta del paciente a las intervenciones terapéuticas. Existe una aplicación única e igualmente importante de la IA en el componente del mundo real de un gemelo digital cuando se aplica a las intervenciones médicas. El paciente solo puede ser tratado una vez, y por lo tanto, debemos recurrir a la experiencia y los resultados de pacientes previamente tratados para validar y optimizar las predicciones computacionales. El componente físico de un gemelo digital, en cambio, debe utilizar una compilación de datos disponibles de pacientes con cáncer previamente tratados cuyas características (genética, tipo de tumor, estilo de vida, etc.) se asemejen estrechamente a las de un paciente con cáncer recién diagnosticado con el propósito de predecir resultados, estratificar opciones de tratamiento, predecir respuestas al tratamiento y/o eventos adversos. Estas tareas incluyen el desarrollo de métodos de recolección de datos robustos, asegurando la disponibilidad de datos, creando modelos precisos y confiables, y estableciendo pautas éticas para el uso y la compartición de datos. Para implementar con éxito la tecnología de gemelos digitales en la atención clínica, es crucial recopilar datos que reflejen con precisión la variedad de enfermedades y la diversidad de la población.</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>El artículo explora cómo los gemelos digitales pueden ser utilizados para personalizar tratamientos en pacientes con cáncer, destacando la importancia de integrar la inteligencia artificial en este proceso. Se presenta un enfoque innovador que utiliza datos de pacientes tratados previamente para mejorar la predicción de respuestas terapéuticas y la estratificación de tratamientos. La singularidad del estudio radica en su énfasis en la diversidad de datos y características de los pacientes para optimizar el proceso de tratamiento.</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>El artículo aborda el uso de gemelos digitales humanos en el contexto del cáncer y no es una revisión sistemática.</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6616,10 +6664,26 @@
           <t>Digital twins are made of a real-world component where data is measured and a virtual component where those measurements are used to parameterize computational models. There is growing interest in applying digital twins-based approaches to optimize personalized treatment plans and improve health outcomes. The integration of artificial intelligence is critical in this process, as it enables the development of sophisticated disease models that can accurately predict patient response to therapeutic interventions. There is a unique and equally important application of AI to the real-world component of a digital twin when it is applied to medical interventions. The patient can only be treated once, and therefore, we must turn to the experience and outcomes of previously treated patients for validation and optimization of the computational predictions. The physical component of a digital twins instead must utilize a compilation of available data from previously treated cancer patients whose characteristics (genetics, tumor type, lifestyle, etc.) closely parallel those of a newly diagnosed cancer patient for the purpose of predicting outcomes, stratifying treatment options, predicting responses to treatment and/or adverse events. These tasks include the development of robust data collection methods, ensuring data availability, creating precise and dependable models, and establishing ethical guidelines for the use and sharing of data. To successfully implement digital twin technology in clinical care, it is crucial to gather data that accurately reflects the variety of diseases and the diversity of the population. Copyright © 2023 Chang, Gitau, Kothapalli, Welch, Sardiu and McCoy.</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Los gemelos digitales están compuestos por un componente del mundo real donde se miden datos y un componente virtual donde se utilizan esas mediciones para parametrizar modelos computacionales. Hay un creciente interés en aplicar enfoques basados en gemelos digitales para optimizar planes de tratamiento personalizados y mejorar los resultados de salud. La integración de la inteligencia artificial es crítica en este proceso, ya que permite el desarrollo de modelos de enfermedad sofisticados que pueden predecir con precisión la respuesta del paciente a las intervenciones terapéuticas. Hay una aplicación única e igualmente importante de la IA al componente del mundo real de un gemelo digital cuando se aplica a intervenciones médicas. El paciente solo puede ser tratado una vez, y por lo tanto, debemos recurrir a la experiencia y resultados de pacientes tratados anteriormente para validar y optimizar las predicciones computacionales. El componente físico de un gemelo digital debe utilizar una compilación de datos disponibles de pacientes con cáncer tratados anteriormente cuyas características (genética, tipo de tumor, estilo de vida, etc.) paralelen estrechamente las de un paciente con cáncer recién diagnosticado con el fin de predecir resultados, estratificar opciones de tratamiento, predecir respuestas al tratamiento y/o eventos adversos. Estas tareas incluyen el desarrollo de métodos robustos de recolección de datos, asegurando la disponibilidad de datos, creando modelos precisos y confiables, y estableciendo pautas éticas para el uso y la compartición de datos. Para implementar con éxito la tecnología de gemelos digitales en la atención clínica, es crucial recopilar datos que reflejen con precisión la variedad de enfermedades y la diversidad de la población.</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>El artículo presenta el concepto de gemelos digitales aplicados al cáncer, discutiendo su potencial para personalizar tratamientos y mejorar resultados mediante el uso de inteligencia artificial. Resalta la importancia de validar estas tecnologías con datos de pacientes previamente tratados para predecir respuestas y efectos adversos. La novedad radica en la integración de modelos computacionales con data real siguiendo criterios éticos, lo que podría transformar la atención médica en oncología.</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>El artículo menciona el uso de gemelos digitales en el ámbito del cáncer, y no es una revisión sistemática.</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -6648,10 +6712,26 @@
           <t>Benchmarking is crucial for healthcare providers to enhance quality and efficiency, notably for complex conditions like sarcomas. Multidisciplinary teams/sarcoma boards (MDT/SBs) are vital in sarcoma management, but differences in their processes can affect patient outcomes and treatment costs, despite adherence to international guidelines. To address this issue, this study aimed to compare two MDT/SBs and establish an interoperable digital platform, Sarconnector(®), for real-time-world data assessment and automated analysis. The study included 983 patients, 46.0% of whom female, with a median age of 58 years, and 4.5% of patients presented with metastasis at diagnosis. Differences were observed in the number of first-time presentations, follow-up presentations, primary sarcomas, biopsies and chemotherapy indications between the two MDT/SB. The results highlight the importance of benchmarking and utilizing a harmonized data approach, such as the RWT approach provided by the Sarconnector(®), to standardize and evaluate quality and cost metrics. By identifying areas of improvement and making data-driven decisions on the meta-level, healthcare providers can optimize resources and improve patient outcomes. In conclusion, benchmarking with the RWT harmonized data approach provided by the Sarconnector(®) can help healthcare providers improve the overall effectiveness of the healthcare system and achieve better outcomes for their patients in terms of both outcomes and costs.</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>La evaluación comparativa es crucial para los proveedores de atención médica para mejorar la calidad y la eficiencia, especialmente para condiciones complejas como los sarcomas. Los equipos multidisciplinarios/mesas de sarcoma (MDT/SBs) son vitales en la gestión de sarcomas, pero las diferencias en sus procesos pueden afectar los resultados de los pacientes y los costos de tratamiento, a pesar de la adherencia a las pautas internacionales. Para abordar este problema, este estudio tuvo como objetivo comparar dos MDT/SBs y establecer una plataforma digital interoperable, Sarconnector(®), para la evaluación de datos del mundo real en tiempo real y el análisis automatizado. El estudio incluyó a 983 pacientes, el 46,0% de los cuales eran mujeres, con una edad media de 58 años, y el 4,5% de los pacientes presentaron metástasis al diagnóstico. Se observaron diferencias en el número de presentaciones iniciales, presentaciones de seguimiento, sarcomas primarios, biopsias e indicaciones de quimioterapia entre los dos MDT/SB. Los resultados destacan la importancia de la evaluación comparativa y la utilización de un enfoque de datos armonizados, como el enfoque RWT proporcionado por el Sarconnector(®), para estandarizar y evaluar métricas de calidad y costo. Al identificar áreas de mejora y tomar decisiones basadas en datos a nivel meta, los proveedores de atención médica pueden optimizar recursos y mejorar los resultados para los pacientes. En conclusión, la evaluación comparativa con el enfoque de datos armonizados RWT proporcionado por el Sarconnector(®) puede ayudar a los proveedores de atención médica a mejorar la efectividad general del sistema de atención sanitaria y lograr mejores resultados para sus pacientes en términos de resultados y costos.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>El artículo investiga el uso de la plataforma Sarconnector(®) para la evaluación comparativa en el tratamiento de sarcomas mediante equipos multidisciplinarios. La novedad radica en la implementación de un enfoque de datos armonizado que permite mejorar la calidad y eficiencia en el manejo de estos tumores complejos. Sin embargo, no se relaciona con gemelos digitales humanos ni presenta un enfoque específico para el cáncer en estas tecnologías.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>El artículo no está relacionado con el uso de gemelos digitales humanos; se centra en un enfoque de datos para benchmarking en sarcomas.</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -6680,10 +6760,26 @@
           <t>Real-world data (RWD) in the medical field, such as electronic health records (EHRs) and medication orders, are receiving increasing attention from researchers and practitioners. While structured data have played a vital role thus far, unstructured data represented by text (e.g., discharge summaries) are not effectively utilized because of the difficulty in extracting medical information. We evaluated the information gained by supplementing structured data with clinical concepts extracted from unstructured text by leveraging natural language processing techniques. Using a machine learning-based pretrained named entity recognition tool, we extracted disease and medication names from real discharge summaries in a Japanese hospital and linked them to medical concepts using medical term dictionaries. By comparing the diseases and medications mentioned in the text with medical codes in tabular diagnosis records, we found that: (1) the text data contained richer information on patient symptoms than tabular diagnosis records, whereas the medication-order table stored more injection data than text. In addition, (2) extractable information regarding specific diseases showed surprisingly small intersections among text, diagnosis records, and medication orders. Text data can thus be a useful supplement for RWD mining, which is further demonstrated by (3) our practical application system for drug safety evaluation, which exhaustively visualizes suspicious adverse drug effects caused by the simultaneous use of anticancer drug pairs. We conclude that proper use of textual information extraction can lead to better outcomes in medical RWD mining.</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Los datos del mundo real (RWD) en el campo médico, como los registros de salud electrónicos (EHR) y las órdenes de medicamentos, están recibiendo una creciente atención de investigadores y profesionales. Mientras que los datos estructurados han desempeñado un papel vital hasta ahora, los datos no estructurados representados por texto (por ejemplo, resúmenes de alta) no se utilizan de manera efectiva debido a la dificultad para extraer información médica. Evaluamos la información obtenida al complementar los datos estructurados con conceptos clínicos extraídos de texto no estructurado aprovechando técnicas de procesamiento de lenguaje natural. Utilizando una herramienta de reconocimiento de entidades nombradas basada en aprendizaje automático, extrajimos nombres de enfermedades y medicamentos de resúmenes de alta reales en un hospital japonés y los vinculamos a conceptos médicos utilizando diccionarios de términos médicos. Al comparar las enfermedades y medicamentos mencionados en el texto con los códigos médicos en los registros de diagnóstico tabular, encontramos que: (1) los datos de texto contenían información más rica sobre los síntomas del paciente que los registros de diagnóstico tabular, mientras que la tabla de órdenes de medicamentos almacenaba más datos de inyección que el texto. Además, (2) la información extraíble sobre enfermedades específicas mostró intersecciones sorprendentemente pequeñas entre el texto, los registros de diagnóstico y las órdenes de medicamentos. Por lo tanto, los datos de texto pueden ser un útil complemento para la minería de RWD, lo que se demuestra aún más por (3) nuestro sistema de aplicación práctica para la evaluación de seguridad de medicamentos, que visualiza exhaustivamente efectos secundarios sospechosos causados por el uso simultáneo de pares de medicamentos anticancerígenos. Concluimos que el uso adecuado de la extracción de información textual puede llevar a mejores resultados en la minería médica de RWD.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>El artículo explora el uso de datos no estructurados en registros médicos para complementar información sobre síntomas de pacientes y medicamentos. La novedad radica en la aplicación de técnicas de procesamiento de lenguaje natural para extraer información clínica, particularmente en el contexto de la evaluación de la seguridad de medicamentos anticancerígenos. Sin embargo, no aborda el uso de gemelos digitales humanos ni se centra únicamente en el ámbito del cáncer.</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>El artículo no está relacionado con el uso de gemelos digitales humanos ni se aplica específicamente al ámbito del cáncer.</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -6712,10 +6808,26 @@
           <t>Enrolling patients in immunotherapy clinical trials is becoming increasingly competitive. Virtual clinical trials can help investigators answer key questions despite this. For example, pembrolizumab is the recommended first-line treatment for non-small cell lung cancer (NSCLC) with no driver alterations and a programmed death ligand 1 (PD-L1) Tumor Proportion Score ≥50%. Salvage therapies for relapsed/refractory patients are limited. Retrospective studies suggest that a subset of patients may benefit from pembrolizumab beyond progression; these results have not been validated in a prospective study. We constructed digital twins of patients and simulated clinical trials to predict the best salvage therapy after progressive disease (PD) on pembrolizumab. Response dynamics were evaluated at the lesion level to represent patients who experience systemic PD while individual lesions continue shrinking. With &gt;25,000 radiographic lesion measurements from &gt;500 patients, we simulated responses to pembrolizumab, chemotherapy, and PD on pembrolizumab followed by either pembrolizumab beyond progression or salvage chemotherapy. Switching all progressors to salvage chemotherapy was suboptimal. Virtual trials predicted progression-free survival (PFS) from pembrolizumab beyond progression to be comparable with salvage chemotherapy in patients whose PD was due to nontarget progression. A PFS-optimized regimen may improve disease control rates ≥15%. Pembrolizumab beyond progression may benefit a subset of patients with PD-L1-high, driver alteration-free NSCLC, but prospective studies are warranted.</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Enrolar pacientes en ensayos clínicos de inmunoterapia se está volviendo cada vez más competitivo. Los ensayos clínicos virtuales pueden ayudar a los investigadores a responder preguntas clave a pesar de esto. Por ejemplo, el pembrolizumab es el tratamiento de primera línea recomendado para el cáncer de pulmón de células no pequeñas (NSCLC) sin alteraciones driver y un puntaje de proporción tumoral de PD-L1 ≥50%. Las terapias de rescate para pacientes con recaída/refractarios son limitadas. Estudios retrospectivos sugieren que un subconjunto de pacientes puede beneficiarse del pembrolizumab más allá de la progresión; estos resultados no han sido validados en un estudio prospectivo. Construimos gemelos digitales de pacientes y simulamos ensayos clínicos para predecir la mejor terapia de rescate después de la enfermedad progresiva (PD) con pembrolizumab. Se evaluaron las dinámicas de respuesta a nivel de lesión para representar a los pacientes que experimentan PD sistémica mientras que lesiones individuales continúan reduciéndose. Con más de 25,000 mediciones radiográficas de lesiones de más de 500 pacientes, simulamos respuestas a pembrolizumab, quimioterapia y PD con pembrolizumab seguido de pembrolizumab más allá de la progresión o quimioterapia de rescate. Cambiar todos los progresores a quimioterapia de rescate fue subóptimo. Los ensayos virtuales predijeron que la supervivencia libre de progresión (PFS) de pembrolizumab más allá de la progresión sería comparable con la quimioterapia de rescate en pacientes cuya PD se debió a progresión no objetivo. Un régimen optimizado para PFS puede mejorar las tasas de control de la enfermedad ≥15%. Pembrolizumab más allá de la progresión puede beneficiar a un subconjunto de pacientes con NSCLC de PD-L1 alto y sin alteración driver, pero se requieren estudios prospectivos.</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>El artículo presenta el uso de gemelos digitales para simular ensayos clínicos en pacientes con cáncer de pulmón de células no pequeñas tratados con pembrolizumab. Se analizan las opciones de tratamiento en pacientes con enfermedad progresiva, sugiriendo que algunos podrían beneficiarse del tratamiento más allá de la progresión. La novedad radica en la aplicación de la simulación virtual para optimizar estrategias de tratamiento, destacando su importancia en el contexto de tratamientos personalizados.</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>El artículo describe el uso de gemelos digitales humanos y se aplica al ámbito del cáncer en el contexto de ensayos clínicos.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -6744,10 +6856,26 @@
           <t>Renal failure, a public health concern, and the scarcity of nephrologists around the globe have necessitated the development of an AI-based system to auto-diagnose kidney diseases. This research deals with the three major renal diseases categories: kidney stones, cysts, and tumors, and gathered and annotated a total of 12,446 CT whole abdomen and urogram images in order to construct an AI-based kidney diseases diagnostic system and contribute to the AI community's research scope e.g., modeling digital-twin of renal functions. The collected images were exposed to exploratory data analysis, which revealed that the images from all of the classes had the same type of mean color distribution. Furthermore, six machine learning models were built, three of which are based on the state-of-the-art variants of the Vision transformers EANet, CCT, and Swin transformers, while the other three are based on well-known deep learning models Resnet, VGG16, and Inception v3, which were adjusted in the last layers. While the VGG16 and CCT models performed admirably, the swin transformer outperformed all of them in terms of accuracy, with an accuracy of 99.30 percent. The F1 score and precision and recall comparison reveal that the Swin transformer outperforms all other models and that it is the quickest to train. The study also revealed the blackbox of the VGG16, Resnet50, and Inception models, demonstrating that VGG16 is superior than Resnet50 and Inceptionv3 in terms of monitoring the necessary anatomy abnormalities. We believe that the superior accuracy of our Swin transformer-based model and the VGG16-based model can both be useful in diagnosing kidney tumors, cysts, and stones.</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>La insuficiencia renal, una preocupación de salud pública, y la escasez de nefrólogos en todo el mundo han hecho necesario el desarrollo de un sistema basado en IA para el autodiagnóstico de enfermedades renales. Esta investigación abarca las tres principales categorías de enfermedades renales: cálculos renales, quistes y tumores, y se recopilaron y anotaron un total de 12,446 imágenes de CT del abdomen completo y urogramas para construir un sistema de diagnóstico de enfermedades renales basado en IA y contribuir al ámbito de investigación de la comunidad de IA, por ejemplo, modelando el gemelo digital de las funciones renales. Las imágenes recopiladas se expusieron a un análisis exploratorio de datos, que reveló que las imágenes de todas las clases tenían el mismo tipo de distribución de color medio. Además, se construyeron seis modelos de aprendizaje automático, tres de los cuales se basan en variantes de última generación de los transformadores de visión EANet, CCT y Swin, mientras que los otros tres se basan en modelos de aprendizaje profundo bien conocidos, Resnet, VGG16 e Inception v3, que se ajustaron en las últimas capas. Aunque los modelos VGG16 y CCT tuvieron un rendimiento admirable, el transformador Swin superó a todos ellos en términos de precisión, con una exactitud del 99.30 por ciento. La comparación del F1 score, precisión y recuperación revela que el transformador Swin supera a todos los demás modelos y es el más rápido de entrenar. El estudio también reveló la caja negra de los modelos VGG16, Resnet50 e Inception, demostrando que VGG16 es superior a Resnet50 e Inceptionv3 en términos de monitoreo de las anomalías anatómicas necesarias. Creemos que la superior precisión de nuestro modelo basado en el transformador Swin y el modelo basado en VGG16 pueden ser útiles en el diagnóstico de tumores, quistes y piedras en los riñones.</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>El artículo presenta un sistema basado en inteligencia artificial para el diagnóstico de enfermedades renales, incluyendo tumores. Se recopilan y analizan imágenes médicas para desarrollar un modelo que supera a otros en precisión. Aunque aborda el uso de IA en el diagnóstico, no se enfoca en gemelos digitales humanos, lo que limita su pertinencia para el ámbito del cáncer. Su novedad radica en la utilización de modelos avanzados de machine learning para mejorar el diagnóstico.</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>El artículo no está relacionado con el uso de gemelos digitales humanos, ya que se centra en un sistema de diagnóstico de enfermedades renales.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
